--- a/documents/03_QM/FRVA_Arbeitsjournal.xlsx
+++ b/documents/03_QM/FRVA_Arbeitsjournal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitslog" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Pivot Table_Arbeitslog_1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Pivot Table_Arbeitslog" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="WBS" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t xml:space="preserve">Wer</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t xml:space="preserve">Patrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kick-Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besprechung weiteres Vorgehen</t>
   </si>
   <si>
     <t xml:space="preserve">Sum - Wie lange</t>
@@ -199,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -230,6 +236,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="medium"/>
       <top style="medium"/>
       <bottom style="thin"/>
@@ -257,6 +270,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="medium"/>
       <top style="thin"/>
@@ -264,58 +284,16 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -335,7 +313,7 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
+      <right/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
@@ -391,7 +369,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -404,6 +382,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -420,7 +402,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -428,39 +410,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -468,27 +462,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -511,35 +485,45 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="2">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="6">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E3" sheet="Arbeitslog"/>
+    <worksheetSource ref="A1:E500" sheet="Arbeitslog"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Wer" numFmtId="0">
-      <sharedItems count="2" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="1" containsNumber="0">
+      <sharedItems count="3" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="1" containsNumber="0">
         <s v="Patrick"/>
         <s v="Roland"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Wann" numFmtId="0">
-      <sharedItems count="1" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
+      <sharedItems count="3" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="0" containsNumber="1">
         <n v="42957"/>
+        <n v="42971"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Wie lange" numFmtId="0">
-      <sharedItems count="1" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
+      <sharedItems count="4" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="0" containsNumber="1">
+        <n v="1"/>
+        <n v="3"/>
         <n v="5"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Arbeitspacket (WBS)" numFmtId="0">
-      <sharedItems count="1" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="1" containsNumber="0">
+      <sharedItems count="2" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="1" containsNumber="0">
         <s v="1.01 Meetings"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Was" numFmtId="0">
-      <sharedItems count="1" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="1" containsNumber="0">
+      <sharedItems count="4" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="1" containsNumber="0">
+        <s v="Besprechung weiteres Vorgehen"/>
+        <s v="Kick-Off"/>
         <s v="Planung Kick-Off, Projektstart, vorbereitung Dokumentation"/>
+        <m/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -547,17 +531,45 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="6">
   <r>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -567,7 +579,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1">
-  <location ref="A1:D7" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+  <location ref="A1:E5" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0"/>
     <pivotField axis="axisCol" showAll="0"/>
@@ -579,9 +591,8 @@
     <field x="0"/>
     <field x="3"/>
   </rowFields>
-  <colFields count="2">
+  <colFields count="1">
     <field x="1"/>
-    <field x="-2"/>
   </colFields>
   <dataFields count="1">
     <dataField fld="2" subtotal="sum"/>
@@ -594,19 +605,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="51.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.83"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,7 +647,7 @@
       <c r="C2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -653,23 +664,91 @@
       <c r="C3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>42971</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>42971</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>42971</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>42971</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D3" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D7" type="list">
       <formula1>WBS!$A$1:$E$43</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -682,101 +761,100 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.83"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="n">
+        <v>42957</v>
+      </c>
+      <c r="D2" s="12" t="n">
+        <v>42971</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="9" t="n">
-        <v>42957</v>
-      </c>
-      <c r="D2" s="10" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="D5" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" s="18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" s="18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" s="24" t="n">
-        <v>10</v>
+      <c r="E5" s="23" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -791,35 +869,35 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,114 +905,114 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/documents/03_QM/FRVA_Arbeitsjournal.xlsx
+++ b/documents/03_QM/FRVA_Arbeitsjournal.xlsx
@@ -20,7 +20,6 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>Wer</t>
   </si>
@@ -180,6 +179,18 @@
   </si>
   <si>
     <t>Meeting Skype, Nachbereitung</t>
+  </si>
+  <si>
+    <t>Skype Meeting mit Andreas Burkart und A. Hüni</t>
+  </si>
+  <si>
+    <t>Arbeit an Requirements update nach Gespräch</t>
+  </si>
+  <si>
+    <t>Update an Req, einarbeiten von A. Burkarts Feedback</t>
+  </si>
+  <si>
+    <t>Releaseplanung und Risikoliste</t>
   </si>
 </sst>
 </file>
@@ -878,13 +889,13 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
     <col min="5" max="5" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1100,60 +1111,144 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D14" s="3"/>
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C14">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D15" s="3"/>
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C15">
+        <v>1.5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>42995</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.15">

--- a/documents/03_QM/FRVA_Arbeitsjournal.xlsx
+++ b/documents/03_QM/FRVA_Arbeitsjournal.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
   <si>
     <t>Wer</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Releaseplanung und Risikoliste</t>
+  </si>
+  <si>
+    <t>Kundenmeeting</t>
+  </si>
+  <si>
+    <t>Requirements reinschreiben und an alle senden</t>
   </si>
 </sst>
 </file>
@@ -889,7 +895,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1213,13 +1219,55 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D20" s="3"/>
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C20">
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D21" s="3"/>
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C21">
+        <v>1.5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D22" s="3"/>
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C22">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D23" s="3"/>

--- a/documents/03_QM/FRVA_Arbeitsjournal.xlsx
+++ b/documents/03_QM/FRVA_Arbeitsjournal.xlsx
@@ -196,7 +196,7 @@
     <t>Kundenmeeting</t>
   </si>
   <si>
-    <t>Requirements reinschreiben und an alle senden</t>
+    <t>Requirements migration von Gdoc</t>
   </si>
 </sst>
 </file>
@@ -895,7 +895,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/documents/03_QM/FRVA_Arbeitsjournal.xlsx
+++ b/documents/03_QM/FRVA_Arbeitsjournal.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28705"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrick.wigger/Dropbox/FloxRox/floxrox/documents/03_QM/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27495" windowHeight="16320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30540" windowHeight="23540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitslog" sheetId="1" r:id="rId1"/>
     <sheet name="PivotTable" sheetId="4" r:id="rId2"/>
     <sheet name="WBS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="76">
   <si>
     <t>Wer</t>
   </si>
@@ -220,6 +233,33 @@
   </si>
   <si>
     <t>Sum of Wie lange</t>
+  </si>
+  <si>
+    <t>Kundenmeeting, Übergabe v.0.1</t>
+  </si>
+  <si>
+    <t>Initialize Connection</t>
+  </si>
+  <si>
+    <t>Div. Emails, Refactoring v0.1 Gui v2</t>
+  </si>
+  <si>
+    <t>Refactoring v.01. Gui v2</t>
+  </si>
+  <si>
+    <t>1.04 OPTIMISE</t>
+  </si>
+  <si>
+    <t>planung , Flug buchen, Email, LOM</t>
+  </si>
+  <si>
+    <t>planung , Flug buchen, Email, LOM, Draft Präsentation</t>
+  </si>
+  <si>
+    <t>Requirement: Lazy-Loading</t>
+  </si>
+  <si>
+    <t>Meeting mit Jb Hyperspectral</t>
   </si>
 </sst>
 </file>
@@ -228,9 +268,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="165" formatCode="dd\.mmm"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -240,6 +280,22 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -262,9 +318,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -279,31 +339,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd\.mm"/>
+      <numFmt numFmtId="165" formatCode="dd\.mmm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="dd\.mmm"/>
+      <numFmt numFmtId="165" formatCode="dd\.mmm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd\.mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="dd\.mmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd\.mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="dd\.mmm"/>
+      <numFmt numFmtId="165" formatCode="dd\.mmm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -702,7 +757,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:T19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -868,17 +923,17 @@
     <dataField name="Sum of Wie lange" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="5">
+    <format dxfId="2">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -1146,7 +1201,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1154,23 +1209,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" customWidth="1"/>
-    <col min="6" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="46.5" customWidth="1"/>
+    <col min="6" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1204,7 +1259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1221,7 +1276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1238,7 +1293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1255,7 +1310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1272,7 +1327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1289,7 +1344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1306,7 +1361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1323,7 +1378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1340,7 +1395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1374,7 +1429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1391,7 +1446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1408,7 +1463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1480,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1459,7 +1514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1476,7 +1531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1493,7 +1548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1510,7 +1565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1527,7 +1582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1544,7 +1599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1561,7 +1616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1578,7 +1633,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1595,7 +1650,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1612,7 +1667,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1629,7 +1684,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1646,7 +1701,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1663,7 +1718,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1680,7 +1735,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1697,7 +1752,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1714,7 +1769,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1731,7 +1786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1748,7 +1803,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1765,7 +1820,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1782,7 +1837,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1798,6 +1853,279 @@
       <c r="E37" t="s">
         <v>62</v>
       </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43034</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43034</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43040</v>
+      </c>
+      <c r="C40">
+        <v>1.5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43040</v>
+      </c>
+      <c r="C41">
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43041</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1">
+        <v>43041</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43048</v>
+      </c>
+      <c r="C44">
+        <v>1.5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43048</v>
+      </c>
+      <c r="C45">
+        <v>1.5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43048</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1">
+        <v>43048</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1">
+        <v>43055</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="1">
+        <v>43055</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D72" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1816,7 +2144,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D32</xm:sqref>
+          <xm:sqref>D2:D32 D48:D72 D40:D46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1828,41 +2156,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>66</v>
       </c>
@@ -1870,7 +2198,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1">
+    <row r="4" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>65</v>
       </c>
@@ -1932,7 +2260,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1994,7 +2322,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -2030,7 +2358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -2058,7 +2386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -2092,7 +2420,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
@@ -2132,7 +2460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -2160,7 +2488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
@@ -2188,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -2240,7 +2568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
@@ -2276,7 +2604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -2306,7 +2634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -2334,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>50</v>
       </c>
@@ -2370,7 +2698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
@@ -2398,7 +2726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
@@ -2426,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
@@ -2499,19 +2827,19 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" activeCellId="1" sqref="E24 D16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.5" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="6" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2528,7 +2856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2545,7 +2873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -2562,7 +2890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2576,7 +2904,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
@@ -2587,52 +2918,52 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>52</v>
       </c>

--- a/documents/03_QM/FRVA_Arbeitsjournal.xlsx
+++ b/documents/03_QM/FRVA_Arbeitsjournal.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrick.wigger/Dropbox/FloxRox/floxrox/documents/03_QM/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30540" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28920" windowHeight="16320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitslog" sheetId="1" r:id="rId1"/>
@@ -18,21 +13,13 @@
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="83">
   <si>
     <t>Wer</t>
   </si>
@@ -260,6 +247,27 @@
   </si>
   <si>
     <t>Meeting mit Jb Hyperspectral</t>
+  </si>
+  <si>
+    <t>Anpassungen an v0.3</t>
+  </si>
+  <si>
+    <t>Applikations Menu implementiert</t>
+  </si>
+  <si>
+    <t>Implemented App Menu &amp; ZoomCorrection</t>
+  </si>
+  <si>
+    <t>Bluetooth implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roland </t>
+  </si>
+  <si>
+    <t>Bluetooth on Win10</t>
+  </si>
+  <si>
+    <t>Projektwoche</t>
   </si>
 </sst>
 </file>
@@ -270,7 +278,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\.mmm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -326,7 +334,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -341,16 +349,28 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="dd\.mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="dd\.mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="dd\.mmm"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="dd\.mmm"/>
     </dxf>
@@ -439,7 +459,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="jp" refreshedDate="43027.627089120368" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="36">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="jp" refreshedDate="43067.36371041667" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="36">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E37" sheet="Arbeitslog"/>
   </cacheSource>
@@ -757,7 +777,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:T19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -923,17 +943,17 @@
     <dataField name="Sum of Wie lange" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="5">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -1201,7 +1221,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1211,21 +1231,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="46.5" customWidth="1"/>
-    <col min="6" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" customWidth="1"/>
+    <col min="6" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1242,9 +1262,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>42957</v>
@@ -1259,726 +1279,726 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42957</v>
+        <v>42971</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>42971</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>42971</v>
+        <v>42983</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>42971</v>
+        <v>42988</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>42971</v>
+        <v>42989</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>42983</v>
+        <v>42992</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>42995</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>42983</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>42988</v>
+        <v>42996</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>42989</v>
+        <v>42998</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>42989</v>
+        <v>42999</v>
       </c>
       <c r="C12">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1">
-        <v>42992</v>
-      </c>
-      <c r="C13">
-        <v>1.5</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>42992</v>
+        <v>43013</v>
       </c>
       <c r="C14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>42995</v>
+        <v>43018</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="1">
-        <v>42996</v>
+        <v>43020</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43020</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43022</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43024</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43025</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43027</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43034</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43040</v>
+      </c>
+      <c r="C23">
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43041</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43048</v>
+      </c>
+      <c r="C25">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43048</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43055</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>42957</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>42971</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>42971</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C33">
+        <v>1.5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
         <v>42996</v>
       </c>
-      <c r="C17">
+      <c r="C35">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1">
-        <v>42996</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="1">
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
         <v>42998</v>
       </c>
-      <c r="C19">
+      <c r="C36">
         <v>1.5</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1">
-        <v>42998</v>
-      </c>
-      <c r="C20">
-        <v>1.5</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1">
-        <v>42999</v>
-      </c>
-      <c r="C21">
-        <v>1.5</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1">
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
         <v>43006</v>
       </c>
-      <c r="C22">
+      <c r="C37">
         <v>3</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="1">
-        <v>43006</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="1">
-        <v>43013</v>
-      </c>
-      <c r="C24">
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43018</v>
+      </c>
+      <c r="C38">
         <v>2</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="1">
-        <v>43018</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1">
-        <v>43018</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="1">
-        <v>43020</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1">
-        <v>43020</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="1">
-        <v>43020</v>
-      </c>
-      <c r="C29">
-        <v>7</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1">
-        <v>43020</v>
-      </c>
-      <c r="C30">
-        <v>7</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="1">
-        <v>43022</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1">
-        <v>43022</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="1">
-        <v>43024</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="1">
-        <v>43025</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1">
-        <v>43025</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="1">
-        <v>43027</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="1">
-        <v>43027</v>
-      </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="1">
-        <v>43034</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43020</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43020</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43022</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43025</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1">
+        <v>43027</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43034</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="1">
-        <v>43034</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="1">
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1">
         <v>43040</v>
-      </c>
-      <c r="C40">
-        <v>1.5</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1">
-        <v>43040</v>
-      </c>
-      <c r="C41">
-        <v>1.5</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1">
-        <v>43041</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="1">
-        <v>43041</v>
-      </c>
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="1">
-        <v>43048</v>
-      </c>
-      <c r="C44">
-        <v>1.5</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="1">
-        <v>43048</v>
       </c>
       <c r="C45">
         <v>1.5</v>
@@ -1987,147 +2007,382 @@
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B46" s="1">
-        <v>43048</v>
+        <v>43041</v>
       </c>
       <c r="C46">
         <v>5</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="1">
-        <v>43048</v>
+        <v>43042</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="1">
-        <v>43055</v>
+        <v>43045</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1">
-        <v>43055</v>
+        <v>43047</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E49" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1">
+        <v>43048</v>
+      </c>
+      <c r="C50">
+        <v>1.5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1">
+        <v>43048</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1">
+        <v>43055</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1">
+        <v>43059</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="1">
+        <v>43060</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="1">
+        <v>43061</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="1">
+        <v>43062</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="1">
+        <v>43062</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1">
+        <v>43066</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
       <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1">
+        <v>43067</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
       <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43068</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
       <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43069</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
       <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43070</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
       <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43066</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
       <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="1">
+        <v>43067</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
       <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="E64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="1">
+        <v>43068</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
       <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="E65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43069</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
       <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="E66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="1">
+        <v>43070</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
       <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="E67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5">
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5">
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5">
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5">
       <c r="D72" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A2:E57">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -2144,7 +2399,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D32 D48:D72 D40:D46</xm:sqref>
+          <xm:sqref>D2:D32 D40:D46 D48:D72</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2157,40 +2412,41 @@
   <dimension ref="A3:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" customWidth="1"/>
-    <col min="32" max="32" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>66</v>
       </c>
@@ -2198,7 +2454,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="9" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>65</v>
       </c>
@@ -2260,7 +2516,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -2322,7 +2578,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -2358,7 +2614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -2386,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -2420,7 +2676,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20">
       <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
@@ -2460,7 +2716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -2488,7 +2744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
@@ -2516,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -2568,7 +2824,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
@@ -2604,7 +2860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -2634,7 +2890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -2662,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20">
       <c r="A16" s="7" t="s">
         <v>50</v>
       </c>
@@ -2698,7 +2954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
@@ -2726,7 +2982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20">
       <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
@@ -2754,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20">
       <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
@@ -2830,16 +3086,16 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="3" width="41.5" customWidth="1"/>
-    <col min="4" max="4" width="34.5" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
-    <col min="6" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2856,7 +3112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2873,7 +3129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -2890,7 +3146,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2904,7 +3160,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -2918,52 +3174,52 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="D7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="D8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="D9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="C12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="C13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="C14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="C15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="C16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:3">
       <c r="C20" t="s">
         <v>52</v>
       </c>
